--- a/shablon_kbpr.xlsx
+++ b/shablon_kbpr.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>№ п/п</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>статья</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
   <dimension ref="A1:AMJ3002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2999" sqref="C2999"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -923,6 +926,9 @@
       <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="AMB1" s="14"/>
       <c r="AMC1" s="14"/>
       <c r="AMD1" s="14"/>
@@ -934,117 +940,43 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
-        <v>2</v>
-      </c>
-      <c r="C2" s="19">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19">
-        <v>4</v>
-      </c>
-      <c r="E2" s="19">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19">
-        <v>6</v>
-      </c>
-      <c r="G2" s="19">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19">
-        <v>8</v>
-      </c>
-      <c r="I2" s="19">
-        <v>9</v>
-      </c>
-      <c r="J2" s="19">
-        <v>10</v>
-      </c>
-      <c r="K2" s="19">
-        <v>11</v>
-      </c>
-      <c r="L2" s="19">
-        <v>12</v>
-      </c>
-      <c r="M2" s="19">
-        <v>13</v>
-      </c>
-      <c r="N2" s="19">
-        <v>14</v>
-      </c>
-      <c r="O2" s="19">
-        <v>15</v>
-      </c>
-      <c r="P2" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>17</v>
-      </c>
-      <c r="R2" s="19">
-        <v>18</v>
-      </c>
-      <c r="S2" s="19">
-        <v>19</v>
-      </c>
-      <c r="T2" s="19">
-        <v>20</v>
-      </c>
-      <c r="U2" s="19">
-        <v>21</v>
-      </c>
-      <c r="V2" s="19">
-        <v>22</v>
-      </c>
-      <c r="W2" s="19">
-        <v>23</v>
-      </c>
-      <c r="X2" s="19">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF2" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG2" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="19">
-        <v>38</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:1024" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
